--- a/rocketmq/RocketMQ 表格.xlsx
+++ b/rocketmq/RocketMQ 表格.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kafka与Metaq区别" sheetId="1" r:id="rId1"/>
     <sheet name="Metaq消息堆积能力" sheetId="2" r:id="rId2"/>
     <sheet name="消息安全级别" sheetId="3" r:id="rId3"/>
+    <sheet name="消费Rebalance" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>消息的堆积容量</t>
   </si>
@@ -977,6 +978,76 @@
       </rPr>
       <t>单队列并行消费</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: 3
+C2: 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1~C10: 1
+C11~C20: 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: 4
+C2: 4
+c3~C6: 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队列数量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rebalance</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1: 2
+C2: 2
+C3: 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1130,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1069,6 +1140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,6 +1379,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1932,7 +2024,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
@@ -2083,4 +2175,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="21" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="26">
+        <v>5</v>
+      </c>
+      <c r="B2" s="26">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="26">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="26">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26">
+        <v>20</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="26">
+        <v>20</v>
+      </c>
+      <c r="B5" s="26">
+        <v>6</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rocketmq/RocketMQ 表格.xlsx
+++ b/rocketmq/RocketMQ 表格.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kafka与Metaq区别" sheetId="1" r:id="rId1"/>
     <sheet name="Metaq消息堆积能力" sheetId="2" r:id="rId2"/>
     <sheet name="消息安全级别" sheetId="3" r:id="rId3"/>
     <sheet name="消费Rebalance" sheetId="4" r:id="rId4"/>
+    <sheet name="客户端公共配置" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>消息的堆积容量</t>
   </si>
@@ -1048,6 +1050,331 @@
     <t>C1: 2
 C2: 2
 C3: 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namesrvAddr</t>
+  </si>
+  <si>
+    <t>clientIP</t>
+  </si>
+  <si>
+    <t>10.73.17.146</t>
+  </si>
+  <si>
+    <t>instanceName</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>clientCallbackExecutorThreads</t>
+  </si>
+  <si>
+    <t>pollNameServerInteval</t>
+  </si>
+  <si>
+    <t>heartbeatBrokerInterval</t>
+  </si>
+  <si>
+    <t>persistConsumerOffsetInterval</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数名</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Name Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址列表，多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>NameServer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址用分号隔开</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端本机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址，某些机器会发生无法识别客户端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址情况，需要应用在代码中强制指定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端实例名称，客户端创建的多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际是共用一个内部实例（这个实例包含网络连接、线程资源等）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信层异步回调线程数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间隔时间，单位毫秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送心跳间隔时间，单位毫秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>持久化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消费进度时间，单位毫秒</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1457,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,6 +1476,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1308,7 +1641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1690,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,20 +1729,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,8 +2307,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2038,26 +2386,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
@@ -2181,70 +2529,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="21" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="14.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="26">
+      <c r="A2" s="18">
         <v>5</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="26">
+      <c r="A3" s="18">
         <v>6</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="18">
         <v>3</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="26">
+      <c r="A4" s="18">
         <v>10</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="18">
         <v>20</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="26">
+      <c r="A5" s="18">
         <v>20</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="18">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2253,4 +2601,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="61.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="30">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="30">
+        <v>30000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="30">
+        <v>30000</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="30">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rocketmq/RocketMQ 表格.xlsx
+++ b/rocketmq/RocketMQ 表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Kafka与Metaq区别" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,17 @@
     <sheet name="消息安全级别" sheetId="3" r:id="rId3"/>
     <sheet name="消费Rebalance" sheetId="4" r:id="rId4"/>
     <sheet name="客户端公共配置" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Producer配置" sheetId="6" r:id="rId6"/>
+    <sheet name="PushConsumer配置" sheetId="8" r:id="rId7"/>
+    <sheet name="PullConsumer配置" sheetId="9" r:id="rId8"/>
+    <sheet name="Message数据结构" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>消息的堆积容量</t>
   </si>
@@ -1059,9 +1062,6 @@
     <t>clientIP</t>
   </si>
   <si>
-    <t>10.73.17.146</t>
-  </si>
-  <si>
     <t>instanceName</t>
   </si>
   <si>
@@ -1374,6 +1374,870 @@
         <charset val="134"/>
       </rPr>
       <t>消费进度时间，单位毫秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>producerGroup</t>
+  </si>
+  <si>
+    <t>DEFAULT_PRODUCER</t>
+  </si>
+  <si>
+    <t>createTopicKey</t>
+  </si>
+  <si>
+    <t>TBW102</t>
+  </si>
+  <si>
+    <t>defaultTopicQueueNums</t>
+  </si>
+  <si>
+    <t>sendMsgTimeout</t>
+  </si>
+  <si>
+    <t>compressMsgBodyOverHowmuch</t>
+  </si>
+  <si>
+    <t>retryAnotherBrokerWhenNotStoreOK</t>
+  </si>
+  <si>
+    <t>maxMessageSize</t>
+  </si>
+  <si>
+    <t>transactionCheckListener</t>
+  </si>
+  <si>
+    <t>checkThreadPoolMinSize</t>
+  </si>
+  <si>
+    <t>checkThreadPoolMaxSize</t>
+  </si>
+  <si>
+    <t>checkRequestHoldMax</t>
+  </si>
+  <si>
+    <t>在发送消息时，自动创建服务器不存在的topic，需要指定Key。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在发送消息时，自动创建服务器不存在的topic，默认创建的队列数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息超时时间，单位毫秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息Body超过多大开始压缩（Consumer收到消息会自动解压缩），单位字节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果发送消息返回sendResult，但是sendStatus!=SEND_OK，是否重试发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端限制的消息大小，超过报错，同时服务端也会限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务消息回查监听器，如果发送事务消息，必须设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broker回查Producer事务状态时，线程池大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broker回查Producer事务状态时，Producer本地缓冲请求队列大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组名，多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果属于一个应用，发送同样的消息，则应该将它们归为同一组</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumerGroup</t>
+  </si>
+  <si>
+    <t>DEFAULT_CONSUMER</t>
+  </si>
+  <si>
+    <t>messageModel</t>
+  </si>
+  <si>
+    <t>CLUSTERING</t>
+  </si>
+  <si>
+    <t>consumeFromWhere</t>
+  </si>
+  <si>
+    <t>CONSUME_FROM_LAST_OFFSET</t>
+  </si>
+  <si>
+    <t>allocateMessageQueueStrategy</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>messageListener</t>
+  </si>
+  <si>
+    <t>offsetStore</t>
+  </si>
+  <si>
+    <t>consumeThreadMin</t>
+  </si>
+  <si>
+    <t>consumeThreadMax</t>
+  </si>
+  <si>
+    <t>consumeConcurrentlyMaxSpan</t>
+  </si>
+  <si>
+    <t>pullThresholdForQueue</t>
+  </si>
+  <si>
+    <t>pullInterval</t>
+  </si>
+  <si>
+    <t>consumeMessageBatchMaxSize</t>
+  </si>
+  <si>
+    <t>pullBatchSize</t>
+  </si>
+  <si>
+    <t>AllocateMessageQueueAveragely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组名，多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果属于一个应用，订阅同样的消息，且消费逻辑一致，则应该将它们归为同一组</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">消息模型，支持以下两种
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、集群消费
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、广播消费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动后，默认从什么位置开始消费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rebalance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法实现策略</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息监听器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费进度存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费线程池数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单队列并行消费允许的最大跨度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉消息本地队列缓存消息最大数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉消息间隔，由于是长轮询，所以为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但是如果应用为了流控，也可以设置大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值，单位毫秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量消费，一次消费多少条消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量拉消息，一次最多拉多少条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brokerSuspendMaxTimeMillis</t>
+  </si>
+  <si>
+    <t>consumerTimeoutMillisWhenSuspend</t>
+  </si>
+  <si>
+    <t>consumerPullTimeoutMillis</t>
+  </si>
+  <si>
+    <t>BROADCASTING</t>
+  </si>
+  <si>
+    <t>messageQueueListener</t>
+  </si>
+  <si>
+    <t>registerTopics</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>AllocateMessageQueueAveragely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组名，多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果属于一个应用，订阅同样的消息，且消费逻辑一致，则应该将它们归为同一组</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长轮询，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉消息请求在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂起最长时间，单位毫秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非长轮询，拉消息超时时间，单位毫秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长轮询，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉消息请求在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂起超过指定时间，客户端认为超时，单位毫秒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">消息模型，支持以下两种
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、集群消费
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、广播消费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听队列变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集合</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelayTimeLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitStoreMsgOK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，线下环境不需要申请，线上环境需要申请后才能使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填，类似于Gmail为每封邮件设置的标签，方便服务器过滤使用。目前只支持每个消息设置一个tag，所以也可以类比为Notify的MessageType概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，二进制形式，序列化由应用决定，Producer与Consumer要协商好序列化形式。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填，完全由应用来设置，RocketMQ不做干预</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选填，消息延时级别，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示不延时，大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会延时特定的时间才会被消费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填，表示消息是否在服务器落盘后才返回应答。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选填，代表这条消息的业务关键词，服务器会根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建哈希索引，设置后，可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来查询消息，由于是哈希索引，请尽可能保证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一，例如订单号，商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1641,7 +2505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1705,6 +2569,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1729,20 +2608,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,8 +3174,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2386,26 +3253,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
@@ -2607,180 +3474,679 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="44.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="41.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="40.5" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="43.5">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="61.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="30" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="30">
-        <v>4</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B6" s="22">
+        <v>30000</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B7" s="22">
         <v>30000</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="30">
-        <v>30000</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="30">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4">
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="22">
+        <v>4096</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="22">
+        <v>131072</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="55.5">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="22">
+        <v>10</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="22">
+        <v>20</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22">
+        <v>32</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="55.5">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="22">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="22">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rocketmq/RocketMQ 表格.xlsx
+++ b/rocketmq/RocketMQ 表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Kafka与Metaq区别" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="PushConsumer配置" sheetId="8" r:id="rId7"/>
     <sheet name="PullConsumer配置" sheetId="9" r:id="rId8"/>
     <sheet name="Message数据结构" sheetId="10" r:id="rId9"/>
+    <sheet name="Broker配置" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="226">
   <si>
     <t>消息的堆积容量</t>
   </si>
@@ -2238,6 +2239,1060 @@
         <charset val="134"/>
       </rPr>
       <t>等。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brokerIP1</t>
+  </si>
+  <si>
+    <t>brokerName</t>
+  </si>
+  <si>
+    <t>brokerClusterName</t>
+  </si>
+  <si>
+    <t>brokerId</t>
+  </si>
+  <si>
+    <t>autoCreateTopicEnable</t>
+  </si>
+  <si>
+    <t>autoCreateSubscriptionGroup</t>
+  </si>
+  <si>
+    <t>rejectTransactionMessage</t>
+  </si>
+  <si>
+    <t>fetchNamesrvAddrByAddressServer</t>
+  </si>
+  <si>
+    <t>storePathCommitLog</t>
+  </si>
+  <si>
+    <t>storePathConsumeQueue</t>
+  </si>
+  <si>
+    <t>storePathIndex</t>
+  </si>
+  <si>
+    <t>storeCheckpoint</t>
+  </si>
+  <si>
+    <t>abortFile</t>
+  </si>
+  <si>
+    <t>deleteWhen</t>
+  </si>
+  <si>
+    <t>fileReservedTime</t>
+  </si>
+  <si>
+    <t>maxTransferBytesOnMessageInMemory</t>
+  </si>
+  <si>
+    <t>maxTransferCountOnMessageInMemory</t>
+  </si>
+  <si>
+    <t>maxTransferBytesOnMessageInDisk</t>
+  </si>
+  <si>
+    <t>maxTransferCountOnMessageInDisk</t>
+  </si>
+  <si>
+    <t>messageIndexEnable</t>
+  </si>
+  <si>
+    <t>messageIndexSafe</t>
+  </si>
+  <si>
+    <t>haMasterAddress</t>
+  </si>
+  <si>
+    <t>brokerRole</t>
+  </si>
+  <si>
+    <t>flushDiskType</t>
+  </si>
+  <si>
+    <t>cleanFileForciblyEnable</t>
+  </si>
+  <si>
+    <t>DefaultCluster</t>
+  </si>
+  <si>
+    <t>$HOME/store/commitlog</t>
+  </si>
+  <si>
+    <t>$HOME/store/consumequeue</t>
+  </si>
+  <si>
+    <t>$HOME/store/index</t>
+  </si>
+  <si>
+    <t>$HOME/store/checkpoint</t>
+  </si>
+  <si>
+    <t>$HOME/store/abort</t>
+  </si>
+  <si>
+    <t>ASYNC_MASTER</t>
+  </si>
+  <si>
+    <t>ASYNC_FLUSH</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Name Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本机主机名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址，默认系统自动识别，但是某些多网卡机器会存在识别错误的情况，这种情况下可以人工配置</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属哪个集群</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BrokerId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，必须是大等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的整数，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以挂多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>BrokerName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来配对</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，建议线下开启，线上关闭</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动创建订阅组，建议线下开启，线上关闭</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否拒绝事务消息接入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址，针对大规模的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集群建议使用这种方式</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>commitLog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储路径</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费队列存储路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息索引存储路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>abort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件存储路径</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>checkpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件存储路径</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除文件时间点，默认凌晨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件保留时间，默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息（内存）传输的最大字节数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息（磁盘）传输的最大字节数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息（内存）传输的最大条数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息（磁盘）传输的最大条数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开启消息索引功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提供安全的消息索引机制，索引保证不丢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上直接设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址，默认从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上自动获取，也可以手工强制配置</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的角色
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ASYNC_MASTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异步复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Master
+- SYNC_MASTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步双写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master
+- SLAVE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刷盘方式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ASYNC_FLUSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">异步刷盘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- SYNC_FLUSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步刷盘</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">磁盘满、且无过期文件情况下
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TRUE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表示强制删除文件，优先保证服务可用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FALSE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记服务不可用，文件不删除</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2505,7 +3560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2584,6 +3639,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2608,8 +3666,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3157,6 +4218,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="55.5">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="73.5">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5">
+      <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5">
+      <c r="A8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5">
+      <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="19">
+        <v>4</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="19">
+        <v>48</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5">
+      <c r="A18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="19">
+        <v>262144</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5">
+      <c r="A19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="19">
+        <v>32</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.5">
+      <c r="A20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="19">
+        <v>65536</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.5">
+      <c r="A21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="19">
+        <v>8</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27">
+      <c r="A23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5">
+      <c r="A24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60">
+      <c r="A25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.5">
+      <c r="A26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="70.5">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
@@ -3174,8 +4550,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
@@ -3253,26 +4629,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
@@ -4045,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4057,7 +5433,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="23" t="s">

--- a/rocketmq/RocketMQ 表格.xlsx
+++ b/rocketmq/RocketMQ 表格.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="229">
   <si>
     <t>消息的堆积容量</t>
   </si>
@@ -3293,6 +3293,99 @@
         <charset val="134"/>
       </rPr>
       <t>标记服务不可用，文件不删除</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对外服务的监听端口</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称，不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之间需要指定不同的名字。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要指定相同的名字用来做配对</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3642,6 +3735,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3665,12 +3764,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4220,10 +4313,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4240,289 +4333,302 @@
       <c r="B1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="19">
+        <v>10911</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="55.5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="55.5">
+      <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B4" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" ht="43.5">
+      <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B5" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="73.5">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="73.5">
+      <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B7" s="19">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5">
-      <c r="A7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5">
+      <c r="A9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B9" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="B10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5">
+      <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>211</v>
+        <v>192</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>213</v>
+        <v>193</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="19">
-        <v>4</v>
+        <v>177</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B18" s="19">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.5">
-      <c r="A18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="19">
-        <v>262144</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="19">
-        <v>32</v>
+        <v>262144</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.5">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="19">
-        <v>65536</v>
+        <v>32</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.5">
       <c r="A21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="19">
+        <v>65536</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5">
+      <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B22" s="19">
         <v>8</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="19" t="b">
+      <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C23" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="27">
+      <c r="A24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="19" t="b">
+      <c r="B24" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C24" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.5">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" ht="43.5">
+      <c r="A25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="60">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" ht="60">
+      <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B26" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.5">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" ht="43.5">
+      <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="70.5">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" ht="70.5">
+      <c r="A28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="19" t="b">
+      <c r="B28" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4550,8 +4656,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
@@ -4629,26 +4735,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
